--- a/XlsxToLua/bin/Debug/TestExcel/HeroEquipment.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/HeroEquipment.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my\Source\Code\xlsxtolua\XlsxToLua\bin\Debug\TestExcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12330"/>
   </bookViews>
@@ -148,7 +153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -378,7 +383,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -413,7 +418,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,9 +451,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,6 +503,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -664,7 +703,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -780,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>5001</v>
       </c>
       <c r="C6" s="3">
         <v>10</v>
@@ -799,8 +838,8 @@
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
+      <c r="B7" s="3">
+        <v>5001</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
@@ -819,8 +858,8 @@
       <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
+      <c r="B8" s="3">
+        <v>5001</v>
       </c>
       <c r="C8" s="2">
         <v>10</v>
@@ -839,8 +878,8 @@
       <c r="A9" s="2">
         <v>4</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
+      <c r="B9" s="3">
+        <v>5001</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
@@ -860,7 +899,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
+        <v>5001</v>
       </c>
       <c r="C10" s="3">
         <v>20</v>
@@ -879,8 +918,8 @@
       <c r="A11" s="2">
         <v>6</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
+      <c r="B11" s="3">
+        <v>5001</v>
       </c>
       <c r="C11" s="2">
         <v>20</v>
@@ -899,8 +938,8 @@
       <c r="A12" s="2">
         <v>7</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
+      <c r="B12" s="3">
+        <v>5001</v>
       </c>
       <c r="C12" s="2">
         <v>20</v>
@@ -919,8 +958,8 @@
       <c r="A13" s="2">
         <v>8</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
+      <c r="B13" s="3">
+        <v>5001</v>
       </c>
       <c r="C13" s="2">
         <v>20</v>
@@ -940,7 +979,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="3">
-        <v>1</v>
+        <v>5001</v>
       </c>
       <c r="C14" s="3">
         <v>21</v>
@@ -959,8 +998,8 @@
       <c r="A15" s="2">
         <v>10</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
+      <c r="B15" s="3">
+        <v>5001</v>
       </c>
       <c r="C15" s="2">
         <v>21</v>
@@ -979,8 +1018,8 @@
       <c r="A16" s="2">
         <v>11</v>
       </c>
-      <c r="B16" s="2">
-        <v>1</v>
+      <c r="B16" s="3">
+        <v>5001</v>
       </c>
       <c r="C16" s="2">
         <v>21</v>
@@ -999,8 +1038,8 @@
       <c r="A17" s="2">
         <v>12</v>
       </c>
-      <c r="B17" s="2">
-        <v>1</v>
+      <c r="B17" s="3">
+        <v>5001</v>
       </c>
       <c r="C17" s="2">
         <v>21</v>
@@ -1020,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="3">
-        <v>1</v>
+        <v>5001</v>
       </c>
       <c r="C18" s="3">
         <v>30</v>
@@ -1039,8 +1078,8 @@
       <c r="A19" s="2">
         <v>14</v>
       </c>
-      <c r="B19" s="2">
-        <v>1</v>
+      <c r="B19" s="3">
+        <v>5001</v>
       </c>
       <c r="C19" s="2">
         <v>30</v>
@@ -1059,8 +1098,8 @@
       <c r="A20" s="2">
         <v>15</v>
       </c>
-      <c r="B20" s="2">
-        <v>1</v>
+      <c r="B20" s="3">
+        <v>5001</v>
       </c>
       <c r="C20" s="2">
         <v>30</v>
@@ -1079,8 +1118,8 @@
       <c r="A21" s="2">
         <v>16</v>
       </c>
-      <c r="B21" s="2">
-        <v>1</v>
+      <c r="B21" s="3">
+        <v>5001</v>
       </c>
       <c r="C21" s="2">
         <v>30</v>
@@ -1100,7 +1139,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="3">
-        <v>1</v>
+        <v>5001</v>
       </c>
       <c r="C22" s="3">
         <v>31</v>
@@ -1119,8 +1158,8 @@
       <c r="A23" s="2">
         <v>18</v>
       </c>
-      <c r="B23" s="2">
-        <v>1</v>
+      <c r="B23" s="3">
+        <v>5001</v>
       </c>
       <c r="C23" s="2">
         <v>31</v>
@@ -1139,8 +1178,8 @@
       <c r="A24" s="2">
         <v>19</v>
       </c>
-      <c r="B24" s="2">
-        <v>1</v>
+      <c r="B24" s="3">
+        <v>5001</v>
       </c>
       <c r="C24" s="2">
         <v>31</v>
@@ -1159,8 +1198,8 @@
       <c r="A25" s="2">
         <v>20</v>
       </c>
-      <c r="B25" s="2">
-        <v>1</v>
+      <c r="B25" s="3">
+        <v>5001</v>
       </c>
       <c r="C25" s="2">
         <v>31</v>
@@ -1180,7 +1219,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="3">
-        <v>1</v>
+        <v>5001</v>
       </c>
       <c r="C26" s="3">
         <v>32</v>
@@ -1199,8 +1238,8 @@
       <c r="A27" s="2">
         <v>22</v>
       </c>
-      <c r="B27" s="2">
-        <v>1</v>
+      <c r="B27" s="3">
+        <v>5001</v>
       </c>
       <c r="C27" s="2">
         <v>32</v>
@@ -1219,8 +1258,8 @@
       <c r="A28" s="2">
         <v>23</v>
       </c>
-      <c r="B28" s="2">
-        <v>1</v>
+      <c r="B28" s="3">
+        <v>5001</v>
       </c>
       <c r="C28" s="2">
         <v>32</v>
@@ -1239,8 +1278,8 @@
       <c r="A29" s="2">
         <v>24</v>
       </c>
-      <c r="B29" s="2">
-        <v>1</v>
+      <c r="B29" s="3">
+        <v>5001</v>
       </c>
       <c r="C29" s="2">
         <v>32</v>
@@ -1260,7 +1299,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="3">
-        <v>1</v>
+        <v>5001</v>
       </c>
       <c r="C30" s="3">
         <v>40</v>
@@ -1279,8 +1318,8 @@
       <c r="A31" s="2">
         <v>26</v>
       </c>
-      <c r="B31" s="2">
-        <v>1</v>
+      <c r="B31" s="3">
+        <v>5001</v>
       </c>
       <c r="C31" s="2">
         <v>40</v>
@@ -1299,8 +1338,8 @@
       <c r="A32" s="2">
         <v>27</v>
       </c>
-      <c r="B32" s="2">
-        <v>1</v>
+      <c r="B32" s="3">
+        <v>5001</v>
       </c>
       <c r="C32" s="2">
         <v>40</v>
@@ -1319,8 +1358,8 @@
       <c r="A33" s="2">
         <v>28</v>
       </c>
-      <c r="B33" s="2">
-        <v>1</v>
+      <c r="B33" s="3">
+        <v>5001</v>
       </c>
       <c r="C33" s="2">
         <v>40</v>
@@ -1340,7 +1379,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="3">
-        <v>1</v>
+        <v>5001</v>
       </c>
       <c r="C34" s="3">
         <v>41</v>
@@ -1359,8 +1398,8 @@
       <c r="A35" s="2">
         <v>30</v>
       </c>
-      <c r="B35" s="2">
-        <v>1</v>
+      <c r="B35" s="3">
+        <v>5001</v>
       </c>
       <c r="C35" s="2">
         <v>41</v>
@@ -1379,8 +1418,8 @@
       <c r="A36" s="2">
         <v>31</v>
       </c>
-      <c r="B36" s="2">
-        <v>1</v>
+      <c r="B36" s="3">
+        <v>5001</v>
       </c>
       <c r="C36" s="2">
         <v>41</v>
@@ -1399,8 +1438,8 @@
       <c r="A37" s="2">
         <v>32</v>
       </c>
-      <c r="B37" s="2">
-        <v>1</v>
+      <c r="B37" s="3">
+        <v>5001</v>
       </c>
       <c r="C37" s="2">
         <v>41</v>
@@ -1420,7 +1459,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="3">
-        <v>1</v>
+        <v>5001</v>
       </c>
       <c r="C38" s="3">
         <v>42</v>
@@ -1439,8 +1478,8 @@
       <c r="A39" s="2">
         <v>34</v>
       </c>
-      <c r="B39" s="2">
-        <v>1</v>
+      <c r="B39" s="3">
+        <v>5001</v>
       </c>
       <c r="C39" s="2">
         <v>42</v>
@@ -1459,8 +1498,8 @@
       <c r="A40" s="2">
         <v>35</v>
       </c>
-      <c r="B40" s="2">
-        <v>1</v>
+      <c r="B40" s="3">
+        <v>5001</v>
       </c>
       <c r="C40" s="2">
         <v>42</v>
@@ -1479,8 +1518,8 @@
       <c r="A41" s="2">
         <v>36</v>
       </c>
-      <c r="B41" s="2">
-        <v>1</v>
+      <c r="B41" s="3">
+        <v>5001</v>
       </c>
       <c r="C41" s="2">
         <v>42</v>
@@ -1500,7 +1539,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="3">
-        <v>1</v>
+        <v>5001</v>
       </c>
       <c r="C42" s="3">
         <v>43</v>
@@ -1519,8 +1558,8 @@
       <c r="A43" s="2">
         <v>38</v>
       </c>
-      <c r="B43" s="2">
-        <v>1</v>
+      <c r="B43" s="3">
+        <v>5001</v>
       </c>
       <c r="C43" s="2">
         <v>43</v>
@@ -1539,8 +1578,8 @@
       <c r="A44" s="2">
         <v>39</v>
       </c>
-      <c r="B44" s="2">
-        <v>1</v>
+      <c r="B44" s="3">
+        <v>5001</v>
       </c>
       <c r="C44" s="2">
         <v>43</v>
@@ -1559,8 +1598,8 @@
       <c r="A45" s="2">
         <v>40</v>
       </c>
-      <c r="B45" s="2">
-        <v>1</v>
+      <c r="B45" s="3">
+        <v>5001</v>
       </c>
       <c r="C45" s="2">
         <v>43</v>

--- a/XlsxToLua/bin/Debug/TestExcel/HeroEquipment.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/HeroEquipment.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my\Source\Code\xlsxtolua\XlsxToLua\bin\Debug\TestExcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12330"/>
   </bookViews>
@@ -153,7 +148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -383,7 +378,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -418,7 +413,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -451,26 +446,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,23 +481,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -703,7 +664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6:B45"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -819,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="3">
-        <v>5001</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3">
         <v>10</v>
@@ -838,8 +799,8 @@
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="3">
-        <v>5001</v>
+      <c r="B7" s="2">
+        <v>1</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
@@ -858,8 +819,8 @@
       <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="3">
-        <v>5001</v>
+      <c r="B8" s="2">
+        <v>1</v>
       </c>
       <c r="C8" s="2">
         <v>10</v>
@@ -878,8 +839,8 @@
       <c r="A9" s="2">
         <v>4</v>
       </c>
-      <c r="B9" s="3">
-        <v>5001</v>
+      <c r="B9" s="2">
+        <v>1</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
@@ -899,7 +860,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="3">
-        <v>5001</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
         <v>20</v>
@@ -918,8 +879,8 @@
       <c r="A11" s="2">
         <v>6</v>
       </c>
-      <c r="B11" s="3">
-        <v>5001</v>
+      <c r="B11" s="2">
+        <v>1</v>
       </c>
       <c r="C11" s="2">
         <v>20</v>
@@ -938,8 +899,8 @@
       <c r="A12" s="2">
         <v>7</v>
       </c>
-      <c r="B12" s="3">
-        <v>5001</v>
+      <c r="B12" s="2">
+        <v>1</v>
       </c>
       <c r="C12" s="2">
         <v>20</v>
@@ -958,8 +919,8 @@
       <c r="A13" s="2">
         <v>8</v>
       </c>
-      <c r="B13" s="3">
-        <v>5001</v>
+      <c r="B13" s="2">
+        <v>1</v>
       </c>
       <c r="C13" s="2">
         <v>20</v>
@@ -979,7 +940,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="3">
-        <v>5001</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3">
         <v>21</v>
@@ -998,8 +959,8 @@
       <c r="A15" s="2">
         <v>10</v>
       </c>
-      <c r="B15" s="3">
-        <v>5001</v>
+      <c r="B15" s="2">
+        <v>1</v>
       </c>
       <c r="C15" s="2">
         <v>21</v>
@@ -1018,8 +979,8 @@
       <c r="A16" s="2">
         <v>11</v>
       </c>
-      <c r="B16" s="3">
-        <v>5001</v>
+      <c r="B16" s="2">
+        <v>1</v>
       </c>
       <c r="C16" s="2">
         <v>21</v>
@@ -1038,8 +999,8 @@
       <c r="A17" s="2">
         <v>12</v>
       </c>
-      <c r="B17" s="3">
-        <v>5001</v>
+      <c r="B17" s="2">
+        <v>1</v>
       </c>
       <c r="C17" s="2">
         <v>21</v>
@@ -1059,7 +1020,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="3">
-        <v>5001</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3">
         <v>30</v>
@@ -1078,8 +1039,8 @@
       <c r="A19" s="2">
         <v>14</v>
       </c>
-      <c r="B19" s="3">
-        <v>5001</v>
+      <c r="B19" s="2">
+        <v>1</v>
       </c>
       <c r="C19" s="2">
         <v>30</v>
@@ -1098,8 +1059,8 @@
       <c r="A20" s="2">
         <v>15</v>
       </c>
-      <c r="B20" s="3">
-        <v>5001</v>
+      <c r="B20" s="2">
+        <v>1</v>
       </c>
       <c r="C20" s="2">
         <v>30</v>
@@ -1118,8 +1079,8 @@
       <c r="A21" s="2">
         <v>16</v>
       </c>
-      <c r="B21" s="3">
-        <v>5001</v>
+      <c r="B21" s="2">
+        <v>1</v>
       </c>
       <c r="C21" s="2">
         <v>30</v>
@@ -1139,7 +1100,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="3">
-        <v>5001</v>
+        <v>1</v>
       </c>
       <c r="C22" s="3">
         <v>31</v>
@@ -1158,8 +1119,8 @@
       <c r="A23" s="2">
         <v>18</v>
       </c>
-      <c r="B23" s="3">
-        <v>5001</v>
+      <c r="B23" s="2">
+        <v>1</v>
       </c>
       <c r="C23" s="2">
         <v>31</v>
@@ -1178,8 +1139,8 @@
       <c r="A24" s="2">
         <v>19</v>
       </c>
-      <c r="B24" s="3">
-        <v>5001</v>
+      <c r="B24" s="2">
+        <v>1</v>
       </c>
       <c r="C24" s="2">
         <v>31</v>
@@ -1198,8 +1159,8 @@
       <c r="A25" s="2">
         <v>20</v>
       </c>
-      <c r="B25" s="3">
-        <v>5001</v>
+      <c r="B25" s="2">
+        <v>1</v>
       </c>
       <c r="C25" s="2">
         <v>31</v>
@@ -1219,7 +1180,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="3">
-        <v>5001</v>
+        <v>1</v>
       </c>
       <c r="C26" s="3">
         <v>32</v>
@@ -1238,8 +1199,8 @@
       <c r="A27" s="2">
         <v>22</v>
       </c>
-      <c r="B27" s="3">
-        <v>5001</v>
+      <c r="B27" s="2">
+        <v>1</v>
       </c>
       <c r="C27" s="2">
         <v>32</v>
@@ -1258,8 +1219,8 @@
       <c r="A28" s="2">
         <v>23</v>
       </c>
-      <c r="B28" s="3">
-        <v>5001</v>
+      <c r="B28" s="2">
+        <v>1</v>
       </c>
       <c r="C28" s="2">
         <v>32</v>
@@ -1278,8 +1239,8 @@
       <c r="A29" s="2">
         <v>24</v>
       </c>
-      <c r="B29" s="3">
-        <v>5001</v>
+      <c r="B29" s="2">
+        <v>1</v>
       </c>
       <c r="C29" s="2">
         <v>32</v>
@@ -1299,7 +1260,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="3">
-        <v>5001</v>
+        <v>1</v>
       </c>
       <c r="C30" s="3">
         <v>40</v>
@@ -1318,8 +1279,8 @@
       <c r="A31" s="2">
         <v>26</v>
       </c>
-      <c r="B31" s="3">
-        <v>5001</v>
+      <c r="B31" s="2">
+        <v>1</v>
       </c>
       <c r="C31" s="2">
         <v>40</v>
@@ -1338,8 +1299,8 @@
       <c r="A32" s="2">
         <v>27</v>
       </c>
-      <c r="B32" s="3">
-        <v>5001</v>
+      <c r="B32" s="2">
+        <v>1</v>
       </c>
       <c r="C32" s="2">
         <v>40</v>
@@ -1358,8 +1319,8 @@
       <c r="A33" s="2">
         <v>28</v>
       </c>
-      <c r="B33" s="3">
-        <v>5001</v>
+      <c r="B33" s="2">
+        <v>1</v>
       </c>
       <c r="C33" s="2">
         <v>40</v>
@@ -1379,7 +1340,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="3">
-        <v>5001</v>
+        <v>1</v>
       </c>
       <c r="C34" s="3">
         <v>41</v>
@@ -1398,8 +1359,8 @@
       <c r="A35" s="2">
         <v>30</v>
       </c>
-      <c r="B35" s="3">
-        <v>5001</v>
+      <c r="B35" s="2">
+        <v>1</v>
       </c>
       <c r="C35" s="2">
         <v>41</v>
@@ -1418,8 +1379,8 @@
       <c r="A36" s="2">
         <v>31</v>
       </c>
-      <c r="B36" s="3">
-        <v>5001</v>
+      <c r="B36" s="2">
+        <v>1</v>
       </c>
       <c r="C36" s="2">
         <v>41</v>
@@ -1438,8 +1399,8 @@
       <c r="A37" s="2">
         <v>32</v>
       </c>
-      <c r="B37" s="3">
-        <v>5001</v>
+      <c r="B37" s="2">
+        <v>1</v>
       </c>
       <c r="C37" s="2">
         <v>41</v>
@@ -1459,7 +1420,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="3">
-        <v>5001</v>
+        <v>1</v>
       </c>
       <c r="C38" s="3">
         <v>42</v>
@@ -1478,8 +1439,8 @@
       <c r="A39" s="2">
         <v>34</v>
       </c>
-      <c r="B39" s="3">
-        <v>5001</v>
+      <c r="B39" s="2">
+        <v>1</v>
       </c>
       <c r="C39" s="2">
         <v>42</v>
@@ -1498,8 +1459,8 @@
       <c r="A40" s="2">
         <v>35</v>
       </c>
-      <c r="B40" s="3">
-        <v>5001</v>
+      <c r="B40" s="2">
+        <v>1</v>
       </c>
       <c r="C40" s="2">
         <v>42</v>
@@ -1518,8 +1479,8 @@
       <c r="A41" s="2">
         <v>36</v>
       </c>
-      <c r="B41" s="3">
-        <v>5001</v>
+      <c r="B41" s="2">
+        <v>1</v>
       </c>
       <c r="C41" s="2">
         <v>42</v>
@@ -1539,7 +1500,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="3">
-        <v>5001</v>
+        <v>1</v>
       </c>
       <c r="C42" s="3">
         <v>43</v>
@@ -1558,8 +1519,8 @@
       <c r="A43" s="2">
         <v>38</v>
       </c>
-      <c r="B43" s="3">
-        <v>5001</v>
+      <c r="B43" s="2">
+        <v>1</v>
       </c>
       <c r="C43" s="2">
         <v>43</v>
@@ -1578,8 +1539,8 @@
       <c r="A44" s="2">
         <v>39</v>
       </c>
-      <c r="B44" s="3">
-        <v>5001</v>
+      <c r="B44" s="2">
+        <v>1</v>
       </c>
       <c r="C44" s="2">
         <v>43</v>
@@ -1598,8 +1559,8 @@
       <c r="A45" s="2">
         <v>40</v>
       </c>
-      <c r="B45" s="3">
-        <v>5001</v>
+      <c r="B45" s="2">
+        <v>1</v>
       </c>
       <c r="C45" s="2">
         <v>43</v>
